--- a/ThemePark-Result.xlsx
+++ b/ThemePark-Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priyanka Raina\Google Drive\INSEAD\INSEAD MyNotes\P5\DTS-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{46129858-B923-4F08-8E47-D34896CF6D29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{15AC0FC6-8CEB-45EA-84EC-189E9EE81A56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="382"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="346" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ThemePark-Result" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Cluster3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cluster1!$A$1:$AC$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Cluster2!$A$1:$AC$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Cluster3!$A$1:$AC$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ThemePark-Result'!$A$1:$AD$84</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="104">
   <si>
     <t>Guest_ID</t>
   </si>
@@ -827,9 +830,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1188,30 +1192,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AD84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="69.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
-    <col min="8" max="8" width="35.5546875" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" customWidth="1"/>
-    <col min="10" max="23" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5546875" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="18.77734375" customWidth="1"/>
-    <col min="29" max="29" width="18.77734375" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,55 +1230,55 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
@@ -1395,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1579,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1671,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
@@ -1763,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12</v>
       </c>
@@ -1855,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>13</v>
       </c>
@@ -1947,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -2315,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>18</v>
       </c>
@@ -2499,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>21</v>
       </c>
@@ -2591,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>22</v>
       </c>
@@ -2683,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -2775,7 +2766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24</v>
       </c>
@@ -2867,7 +2858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>25</v>
       </c>
@@ -2959,7 +2950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>26</v>
       </c>
@@ -3143,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>28</v>
       </c>
@@ -3235,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -3416,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>31</v>
       </c>
@@ -3600,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>33</v>
       </c>
@@ -3692,7 +3683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>34</v>
       </c>
@@ -3784,7 +3775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>35</v>
       </c>
@@ -3968,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>37</v>
       </c>
@@ -4060,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>38</v>
       </c>
@@ -4336,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>41</v>
       </c>
@@ -4428,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>42</v>
       </c>
@@ -4520,7 +4511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>43</v>
       </c>
@@ -4612,7 +4603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>44</v>
       </c>
@@ -4704,7 +4695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>45</v>
       </c>
@@ -4796,7 +4787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>46</v>
       </c>
@@ -4980,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>48</v>
       </c>
@@ -5164,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>50</v>
       </c>
@@ -5256,7 +5247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>51</v>
       </c>
@@ -5532,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>54</v>
       </c>
@@ -5900,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>58</v>
       </c>
@@ -6176,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>61</v>
       </c>
@@ -6268,7 +6259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>62</v>
       </c>
@@ -6820,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>68</v>
       </c>
@@ -6912,7 +6903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>69</v>
       </c>
@@ -7004,7 +6995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>70</v>
       </c>
@@ -7096,7 +7087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>71</v>
       </c>
@@ -7188,7 +7179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>72</v>
       </c>
@@ -7280,7 +7271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>73</v>
       </c>
@@ -7372,7 +7363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>74</v>
       </c>
@@ -7648,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>77</v>
       </c>
@@ -7740,7 +7731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>78</v>
       </c>
@@ -7924,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>80</v>
       </c>
@@ -8108,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>82</v>
       </c>
@@ -8200,7 +8191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>83</v>
       </c>
@@ -8940,7 +8931,7 @@
   <autoFilter ref="A1:AD84">
     <filterColumn colId="29">
       <filters>
-        <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8950,36 +8941,7740 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
+    <col min="13" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>87</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>7</v>
+      </c>
+      <c r="U2">
+        <v>6</v>
+      </c>
+      <c r="V2">
+        <v>8</v>
+      </c>
+      <c r="W2">
+        <v>8</v>
+      </c>
+      <c r="X2">
+        <v>8</v>
+      </c>
+      <c r="Y2">
+        <v>6</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>76</v>
+      </c>
+      <c r="B3">
+        <v>2019</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>8</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <v>8</v>
+      </c>
+      <c r="X3">
+        <v>7</v>
+      </c>
+      <c r="Y3">
+        <v>9</v>
+      </c>
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>9</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>8</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>8</v>
+      </c>
+      <c r="V4">
+        <v>7</v>
+      </c>
+      <c r="W4">
+        <v>8</v>
+      </c>
+      <c r="X4">
+        <v>9</v>
+      </c>
+      <c r="Y4">
+        <v>7</v>
+      </c>
+      <c r="Z4">
+        <v>4</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>2020</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="T5">
+        <v>7</v>
+      </c>
+      <c r="U5">
+        <v>8</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>8</v>
+      </c>
+      <c r="X5">
+        <v>7</v>
+      </c>
+      <c r="Y5">
+        <v>8</v>
+      </c>
+      <c r="Z5">
+        <v>9</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>88</v>
+      </c>
+      <c r="B6">
+        <v>2020</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>8</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>8</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <v>10</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <v>10</v>
+      </c>
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>9</v>
+      </c>
+      <c r="P7">
+        <v>9</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>9</v>
+      </c>
+      <c r="U7">
+        <v>8</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>10</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2020</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>10</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>8</v>
+      </c>
+      <c r="Y8">
+        <v>6</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>2019</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>9</v>
+      </c>
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="X9">
+        <v>6</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>2008</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10">
+        <v>6</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2019</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>9</v>
+      </c>
+      <c r="W11">
+        <v>9</v>
+      </c>
+      <c r="X11">
+        <v>8</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <v>5</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>2018</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <v>7</v>
+      </c>
+      <c r="X12">
+        <v>9</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>52</v>
+      </c>
+      <c r="B13">
+        <v>2019</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>10</v>
+      </c>
+      <c r="X13">
+        <v>8</v>
+      </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
+      <c r="Z13">
+        <v>7</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>8</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14">
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <v>8</v>
+      </c>
+      <c r="W14">
+        <v>7</v>
+      </c>
+      <c r="X14">
+        <v>9</v>
+      </c>
+      <c r="Y14">
+        <v>6</v>
+      </c>
+      <c r="Z14">
+        <v>6</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>2019</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15">
+        <v>9</v>
+      </c>
+      <c r="P15">
+        <v>9</v>
+      </c>
+      <c r="Q15">
+        <v>9</v>
+      </c>
+      <c r="R15">
+        <v>7</v>
+      </c>
+      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>7</v>
+      </c>
+      <c r="V15">
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <v>4</v>
+      </c>
+      <c r="Y15">
+        <v>6</v>
+      </c>
+      <c r="Z15">
+        <v>8</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <v>2017</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>9</v>
+      </c>
+      <c r="S16">
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>6</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>10</v>
+      </c>
+      <c r="X16">
+        <v>7</v>
+      </c>
+      <c r="Y16">
+        <v>7</v>
+      </c>
+      <c r="Z16">
+        <v>9</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>2019</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17">
+        <v>8</v>
+      </c>
+      <c r="N17">
+        <v>8</v>
+      </c>
+      <c r="O17">
+        <v>8</v>
+      </c>
+      <c r="P17">
+        <v>8</v>
+      </c>
+      <c r="Q17">
+        <v>8</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>7</v>
+      </c>
+      <c r="W17">
+        <v>5</v>
+      </c>
+      <c r="X17">
+        <v>8</v>
+      </c>
+      <c r="Y17">
+        <v>7</v>
+      </c>
+      <c r="Z17">
+        <v>5</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>2019</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>6</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>8</v>
+      </c>
+      <c r="R18">
+        <v>8</v>
+      </c>
+      <c r="S18">
+        <v>7</v>
+      </c>
+      <c r="T18">
+        <v>8</v>
+      </c>
+      <c r="U18">
+        <v>6</v>
+      </c>
+      <c r="V18">
+        <v>7</v>
+      </c>
+      <c r="W18">
+        <v>7</v>
+      </c>
+      <c r="X18">
+        <v>8</v>
+      </c>
+      <c r="Y18">
+        <v>7</v>
+      </c>
+      <c r="Z18">
+        <v>7</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>2020</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <v>6</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+      <c r="R19">
+        <v>8</v>
+      </c>
+      <c r="S19">
+        <v>8</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>6</v>
+      </c>
+      <c r="V19">
+        <v>9</v>
+      </c>
+      <c r="W19">
+        <v>9</v>
+      </c>
+      <c r="X19">
+        <v>6</v>
+      </c>
+      <c r="Y19">
+        <v>8</v>
+      </c>
+      <c r="Z19">
+        <v>8</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2019</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
+      </c>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="Q20">
+        <v>7</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
+      </c>
+      <c r="U20">
+        <v>5</v>
+      </c>
+      <c r="V20">
+        <v>7</v>
+      </c>
+      <c r="W20">
+        <v>7</v>
+      </c>
+      <c r="X20">
+        <v>8</v>
+      </c>
+      <c r="Y20">
+        <v>8</v>
+      </c>
+      <c r="Z20">
+        <v>8</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>2018</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21">
+        <v>8</v>
+      </c>
+      <c r="N21">
+        <v>7</v>
+      </c>
+      <c r="O21">
+        <v>9</v>
+      </c>
+      <c r="P21">
+        <v>7</v>
+      </c>
+      <c r="Q21">
+        <v>9</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="U21">
+        <v>8</v>
+      </c>
+      <c r="V21">
+        <v>7</v>
+      </c>
+      <c r="W21">
+        <v>3</v>
+      </c>
+      <c r="X21">
+        <v>6</v>
+      </c>
+      <c r="Y21">
+        <v>4</v>
+      </c>
+      <c r="Z21">
+        <v>5</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>2019</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>9</v>
+      </c>
+      <c r="O22">
+        <v>10</v>
+      </c>
+      <c r="P22">
+        <v>9</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+      <c r="S22">
+        <v>6</v>
+      </c>
+      <c r="T22">
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <v>5</v>
+      </c>
+      <c r="V22">
+        <v>6</v>
+      </c>
+      <c r="W22">
+        <v>7</v>
+      </c>
+      <c r="X22">
+        <v>9</v>
+      </c>
+      <c r="Y22">
+        <v>5</v>
+      </c>
+      <c r="Z22">
+        <v>7</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>2018</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>10</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>5</v>
+      </c>
+      <c r="U23">
+        <v>10</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>10</v>
+      </c>
+      <c r="X23">
+        <v>10</v>
+      </c>
+      <c r="Y23">
+        <v>10</v>
+      </c>
+      <c r="Z23">
+        <v>10</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>57</v>
+      </c>
+      <c r="B24">
+        <v>2019</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24">
+        <v>6</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>7</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <v>8</v>
+      </c>
+      <c r="U24">
+        <v>5</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>5</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+      <c r="Z24">
+        <v>3</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>59</v>
+      </c>
+      <c r="B25">
+        <v>2006</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <v>8</v>
+      </c>
+      <c r="Q25">
+        <v>7</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>4</v>
+      </c>
+      <c r="U25">
+        <v>7</v>
+      </c>
+      <c r="V25">
+        <v>7</v>
+      </c>
+      <c r="W25">
+        <v>8</v>
+      </c>
+      <c r="X25">
+        <v>9</v>
+      </c>
+      <c r="Y25">
+        <v>7</v>
+      </c>
+      <c r="Z25">
+        <v>7</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>63</v>
+      </c>
+      <c r="B26">
+        <v>2020</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26">
+        <v>7</v>
+      </c>
+      <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <v>8</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
+      </c>
+      <c r="S26">
+        <v>6</v>
+      </c>
+      <c r="T26">
+        <v>6</v>
+      </c>
+      <c r="U26">
+        <v>6</v>
+      </c>
+      <c r="V26">
+        <v>8</v>
+      </c>
+      <c r="W26">
+        <v>5</v>
+      </c>
+      <c r="X26">
+        <v>7</v>
+      </c>
+      <c r="Y26">
+        <v>6</v>
+      </c>
+      <c r="Z26">
+        <v>5</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>64</v>
+      </c>
+      <c r="B27">
+        <v>2018</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>8</v>
+      </c>
+      <c r="P27">
+        <v>4</v>
+      </c>
+      <c r="Q27">
+        <v>7</v>
+      </c>
+      <c r="R27">
+        <v>8</v>
+      </c>
+      <c r="S27">
+        <v>4</v>
+      </c>
+      <c r="T27">
+        <v>5</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>10</v>
+      </c>
+      <c r="X27">
+        <v>7</v>
+      </c>
+      <c r="Y27">
+        <v>8</v>
+      </c>
+      <c r="Z27">
+        <v>6</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>67</v>
+      </c>
+      <c r="B28">
+        <v>2020</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28">
+        <v>6</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
+      </c>
+      <c r="Q28">
+        <v>7</v>
+      </c>
+      <c r="R28">
+        <v>9</v>
+      </c>
+      <c r="S28">
+        <v>9</v>
+      </c>
+      <c r="T28">
+        <v>8</v>
+      </c>
+      <c r="U28">
+        <v>9</v>
+      </c>
+      <c r="V28">
+        <v>5</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
+      </c>
+      <c r="X28">
+        <v>7</v>
+      </c>
+      <c r="Y28">
+        <v>8</v>
+      </c>
+      <c r="Z28">
+        <v>7</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>75</v>
+      </c>
+      <c r="B29">
+        <v>2013</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29">
+        <v>7</v>
+      </c>
+      <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <v>7</v>
+      </c>
+      <c r="P29">
+        <v>8</v>
+      </c>
+      <c r="Q29">
+        <v>8</v>
+      </c>
+      <c r="R29">
+        <v>8</v>
+      </c>
+      <c r="S29">
+        <v>6</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>5</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>7</v>
+      </c>
+      <c r="X29">
+        <v>5</v>
+      </c>
+      <c r="Y29">
+        <v>5</v>
+      </c>
+      <c r="Z29">
+        <v>6</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>79</v>
+      </c>
+      <c r="B30">
+        <v>2018</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L30" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30">
+        <v>10</v>
+      </c>
+      <c r="N30">
+        <v>10</v>
+      </c>
+      <c r="O30">
+        <v>10</v>
+      </c>
+      <c r="P30">
+        <v>10</v>
+      </c>
+      <c r="Q30">
+        <v>7</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <v>4</v>
+      </c>
+      <c r="U30">
+        <v>6</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>10</v>
+      </c>
+      <c r="X30">
+        <v>6</v>
+      </c>
+      <c r="Y30">
+        <v>10</v>
+      </c>
+      <c r="Z30">
+        <v>8</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>81</v>
+      </c>
+      <c r="B31">
+        <v>2017</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" t="s">
+        <v>65</v>
+      </c>
+      <c r="M31">
+        <v>6</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31">
+        <v>8</v>
+      </c>
+      <c r="P31">
+        <v>6</v>
+      </c>
+      <c r="Q31">
+        <v>9</v>
+      </c>
+      <c r="R31">
+        <v>7</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
+      </c>
+      <c r="U31">
+        <v>7</v>
+      </c>
+      <c r="V31">
+        <v>9</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+      <c r="X31">
+        <v>10</v>
+      </c>
+      <c r="Y31">
+        <v>7</v>
+      </c>
+      <c r="Z31">
+        <v>10</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>84</v>
+      </c>
+      <c r="B32">
+        <v>2019</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32">
+        <v>6</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32">
+        <v>3</v>
+      </c>
+      <c r="Q32">
+        <v>8</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>6</v>
+      </c>
+      <c r="U32">
+        <v>4</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>10</v>
+      </c>
+      <c r="X32">
+        <v>8</v>
+      </c>
+      <c r="Y32">
+        <v>5</v>
+      </c>
+      <c r="Z32">
+        <v>10</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>85</v>
+      </c>
+      <c r="B33">
+        <v>2018</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33">
+        <v>7</v>
+      </c>
+      <c r="N33">
+        <v>7</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="P33">
+        <v>5</v>
+      </c>
+      <c r="Q33">
+        <v>8</v>
+      </c>
+      <c r="R33">
+        <v>8</v>
+      </c>
+      <c r="S33">
+        <v>8</v>
+      </c>
+      <c r="T33">
+        <v>7</v>
+      </c>
+      <c r="U33">
+        <v>6</v>
+      </c>
+      <c r="V33">
+        <v>9</v>
+      </c>
+      <c r="W33">
+        <v>4</v>
+      </c>
+      <c r="X33">
+        <v>6</v>
+      </c>
+      <c r="Y33">
+        <v>4</v>
+      </c>
+      <c r="Z33">
+        <v>6</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>86</v>
+      </c>
+      <c r="B34">
+        <v>2019</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>5</v>
+      </c>
+      <c r="P34">
+        <v>4</v>
+      </c>
+      <c r="Q34">
+        <v>7</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="S34">
+        <v>6</v>
+      </c>
+      <c r="T34">
+        <v>7</v>
+      </c>
+      <c r="U34">
+        <v>6</v>
+      </c>
+      <c r="V34">
+        <v>7</v>
+      </c>
+      <c r="W34">
+        <v>10</v>
+      </c>
+      <c r="X34">
+        <v>10</v>
+      </c>
+      <c r="Y34">
+        <v>10</v>
+      </c>
+      <c r="Z34">
+        <v>9</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>89</v>
+      </c>
+      <c r="B35">
+        <v>2015</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" t="s">
+        <v>48</v>
+      </c>
+      <c r="M35">
+        <v>10</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <v>10</v>
+      </c>
+      <c r="Q35">
+        <v>10</v>
+      </c>
+      <c r="R35">
+        <v>8</v>
+      </c>
+      <c r="S35">
+        <v>6</v>
+      </c>
+      <c r="T35">
+        <v>4</v>
+      </c>
+      <c r="U35">
+        <v>10</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>10</v>
+      </c>
+      <c r="X35">
+        <v>10</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>5</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>90</v>
+      </c>
+      <c r="B36">
+        <v>2014</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36">
+        <v>6</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" t="s">
+        <v>42</v>
+      </c>
+      <c r="M36">
+        <v>7</v>
+      </c>
+      <c r="N36">
+        <v>6</v>
+      </c>
+      <c r="O36">
+        <v>7</v>
+      </c>
+      <c r="P36">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <v>10</v>
+      </c>
+      <c r="R36">
+        <v>6</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="T36">
+        <v>5</v>
+      </c>
+      <c r="U36">
+        <v>5</v>
+      </c>
+      <c r="V36">
+        <v>5</v>
+      </c>
+      <c r="W36">
+        <v>6</v>
+      </c>
+      <c r="X36">
+        <v>6</v>
+      </c>
+      <c r="Y36">
+        <v>6</v>
+      </c>
+      <c r="Z36">
+        <v>6</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>49</v>
+      </c>
+      <c r="B37">
+        <v>2019</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37">
+        <v>6</v>
+      </c>
+      <c r="O37">
+        <v>7</v>
+      </c>
+      <c r="P37">
+        <v>6</v>
+      </c>
+      <c r="Q37">
+        <v>10</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>4</v>
+      </c>
+      <c r="T37">
+        <v>4</v>
+      </c>
+      <c r="U37">
+        <v>7</v>
+      </c>
+      <c r="V37">
+        <v>7</v>
+      </c>
+      <c r="W37">
+        <v>10</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Y37">
+        <v>6</v>
+      </c>
+      <c r="Z37">
+        <v>9</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>2019</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L38" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>6</v>
+      </c>
+      <c r="P38">
+        <v>8</v>
+      </c>
+      <c r="Q38">
+        <v>5</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>5</v>
+      </c>
+      <c r="T38">
+        <v>9</v>
+      </c>
+      <c r="U38">
+        <v>6</v>
+      </c>
+      <c r="V38">
+        <v>9</v>
+      </c>
+      <c r="W38">
+        <v>9</v>
+      </c>
+      <c r="X38">
+        <v>9</v>
+      </c>
+      <c r="Y38">
+        <v>9</v>
+      </c>
+      <c r="Z38">
+        <v>6</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AC38">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC38">
+      <sortCondition ref="K1:K38"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" customWidth="1"/>
+    <col min="13" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>2019</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>8</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>9</v>
+      </c>
+      <c r="V2">
+        <v>8</v>
+      </c>
+      <c r="W2">
+        <v>8</v>
+      </c>
+      <c r="X2">
+        <v>9</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>10</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>2019</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>8</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>8</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>8</v>
+      </c>
+      <c r="V3">
+        <v>8</v>
+      </c>
+      <c r="W3">
+        <v>5</v>
+      </c>
+      <c r="X3">
+        <v>8</v>
+      </c>
+      <c r="Y3">
+        <v>6</v>
+      </c>
+      <c r="Z3">
+        <v>8</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>83</v>
+      </c>
+      <c r="B4">
+        <v>2015</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>9</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>9</v>
+      </c>
+      <c r="V4">
+        <v>9</v>
+      </c>
+      <c r="W4">
+        <v>5</v>
+      </c>
+      <c r="X4">
+        <v>8</v>
+      </c>
+      <c r="Y4">
+        <v>9</v>
+      </c>
+      <c r="Z4">
+        <v>10</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>2019</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>10</v>
+      </c>
+      <c r="U5">
+        <v>10</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2019</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="U6">
+        <v>10</v>
+      </c>
+      <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <v>7</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <v>10</v>
+      </c>
+      <c r="Z6">
+        <v>9</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>10</v>
+      </c>
+      <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="V7">
+        <v>10</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="Z7">
+        <v>5</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>2017</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>10</v>
+      </c>
+      <c r="T8">
+        <v>8</v>
+      </c>
+      <c r="U8">
+        <v>8</v>
+      </c>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <v>7</v>
+      </c>
+      <c r="X8">
+        <v>8</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+      <c r="Z8">
+        <v>8</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>2018</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <v>10</v>
+      </c>
+      <c r="U9">
+        <v>10</v>
+      </c>
+      <c r="V9">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>10</v>
+      </c>
+      <c r="X9">
+        <v>10</v>
+      </c>
+      <c r="Y9">
+        <v>10</v>
+      </c>
+      <c r="Z9">
+        <v>10</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2019</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="T10">
+        <v>9</v>
+      </c>
+      <c r="U10">
+        <v>9</v>
+      </c>
+      <c r="V10">
+        <v>10</v>
+      </c>
+      <c r="W10">
+        <v>9</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>7</v>
+      </c>
+      <c r="Z10">
+        <v>10</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2019</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <v>7</v>
+      </c>
+      <c r="Y11">
+        <v>8</v>
+      </c>
+      <c r="Z11">
+        <v>8</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>2019</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>8</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>6</v>
+      </c>
+      <c r="Y12">
+        <v>10</v>
+      </c>
+      <c r="Z12">
+        <v>6</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+      <c r="R13">
+        <v>9</v>
+      </c>
+      <c r="S13">
+        <v>8</v>
+      </c>
+      <c r="T13">
+        <v>8</v>
+      </c>
+      <c r="U13">
+        <v>8</v>
+      </c>
+      <c r="V13">
+        <v>10</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="X13">
+        <v>10</v>
+      </c>
+      <c r="Y13">
+        <v>8</v>
+      </c>
+      <c r="Z13">
+        <v>10</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>2018</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <v>9</v>
+      </c>
+      <c r="S14">
+        <v>8</v>
+      </c>
+      <c r="T14">
+        <v>10</v>
+      </c>
+      <c r="U14">
+        <v>10</v>
+      </c>
+      <c r="V14">
+        <v>10</v>
+      </c>
+      <c r="W14">
+        <v>6</v>
+      </c>
+      <c r="X14">
+        <v>10</v>
+      </c>
+      <c r="Y14">
+        <v>9</v>
+      </c>
+      <c r="Z14">
+        <v>8</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AC14">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC14">
+      <sortCondition ref="AB1:AB14"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" customWidth="1"/>
+    <col min="13" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>2015</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+      <c r="T2">
+        <v>10</v>
+      </c>
+      <c r="U2">
+        <v>9</v>
+      </c>
+      <c r="V2">
+        <v>10</v>
+      </c>
+      <c r="W2">
+        <v>9</v>
+      </c>
+      <c r="X2">
+        <v>9</v>
+      </c>
+      <c r="Y2">
+        <v>7</v>
+      </c>
+      <c r="Z2">
+        <v>8</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2018</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>8</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>10</v>
+      </c>
+      <c r="Z3">
+        <v>10</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>2018</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>7</v>
+      </c>
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="W4">
+        <v>10</v>
+      </c>
+      <c r="X4">
+        <v>8</v>
+      </c>
+      <c r="Y4">
+        <v>5</v>
+      </c>
+      <c r="Z4">
+        <v>5</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>7</v>
+      </c>
+      <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="T5">
+        <v>7</v>
+      </c>
+      <c r="U5">
+        <v>7</v>
+      </c>
+      <c r="V5">
+        <v>7</v>
+      </c>
+      <c r="W5">
+        <v>7</v>
+      </c>
+      <c r="X5">
+        <v>7</v>
+      </c>
+      <c r="Y5">
+        <v>7</v>
+      </c>
+      <c r="Z5">
+        <v>7</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>2018</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>8</v>
+      </c>
+      <c r="Q6">
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <v>7</v>
+      </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <v>8</v>
+      </c>
+      <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <v>7</v>
+      </c>
+      <c r="X6">
+        <v>8</v>
+      </c>
+      <c r="Y6">
+        <v>8</v>
+      </c>
+      <c r="Z6">
+        <v>9</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>2018</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>9</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>9</v>
+      </c>
+      <c r="T7">
+        <v>8</v>
+      </c>
+      <c r="U7">
+        <v>9</v>
+      </c>
+      <c r="V7">
+        <v>9</v>
+      </c>
+      <c r="W7">
+        <v>9</v>
+      </c>
+      <c r="X7">
+        <v>9</v>
+      </c>
+      <c r="Y7">
+        <v>8</v>
+      </c>
+      <c r="Z7">
+        <v>9</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>2006</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <v>9</v>
+      </c>
+      <c r="S8">
+        <v>9</v>
+      </c>
+      <c r="T8">
+        <v>8</v>
+      </c>
+      <c r="U8">
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <v>8</v>
+      </c>
+      <c r="W8">
+        <v>8</v>
+      </c>
+      <c r="X8">
+        <v>8</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+      <c r="Z8">
+        <v>8</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>1990</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>9</v>
+      </c>
+      <c r="P9">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <v>9</v>
+      </c>
+      <c r="W9">
+        <v>8</v>
+      </c>
+      <c r="X9">
+        <v>9</v>
+      </c>
+      <c r="Y9">
+        <v>8</v>
+      </c>
+      <c r="Z9">
+        <v>9</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>2019</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>7</v>
+      </c>
+      <c r="V10">
+        <v>10</v>
+      </c>
+      <c r="W10">
+        <v>9</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>2020</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <v>7</v>
+      </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <v>7</v>
+      </c>
+      <c r="X11">
+        <v>7</v>
+      </c>
+      <c r="Y11">
+        <v>9</v>
+      </c>
+      <c r="Z11">
+        <v>8</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>2020</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <v>9</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>8</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <v>8</v>
+      </c>
+      <c r="X12">
+        <v>9</v>
+      </c>
+      <c r="Y12">
+        <v>9</v>
+      </c>
+      <c r="Z12">
+        <v>3</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>2016</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <v>9</v>
+      </c>
+      <c r="O13">
+        <v>8</v>
+      </c>
+      <c r="P13">
+        <v>8</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>10</v>
+      </c>
+      <c r="U13">
+        <v>10</v>
+      </c>
+      <c r="V13">
+        <v>10</v>
+      </c>
+      <c r="W13">
+        <v>10</v>
+      </c>
+      <c r="X13">
+        <v>7</v>
+      </c>
+      <c r="Y13">
+        <v>6</v>
+      </c>
+      <c r="Z13">
+        <v>10</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>8</v>
+      </c>
+      <c r="O14">
+        <v>9</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>10</v>
+      </c>
+      <c r="U14">
+        <v>10</v>
+      </c>
+      <c r="V14">
+        <v>7</v>
+      </c>
+      <c r="W14">
+        <v>8</v>
+      </c>
+      <c r="X14">
+        <v>8</v>
+      </c>
+      <c r="Y14">
+        <v>7</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>7</v>
+      </c>
+      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <v>9</v>
+      </c>
+      <c r="R15">
+        <v>9</v>
+      </c>
+      <c r="S15">
+        <v>9</v>
+      </c>
+      <c r="T15">
+        <v>9</v>
+      </c>
+      <c r="U15">
+        <v>9</v>
+      </c>
+      <c r="V15">
+        <v>9</v>
+      </c>
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <v>9</v>
+      </c>
+      <c r="Y15">
+        <v>7</v>
+      </c>
+      <c r="Z15">
+        <v>8</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>2020</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>8</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <v>8</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>10</v>
+      </c>
+      <c r="U16">
+        <v>10</v>
+      </c>
+      <c r="V16">
+        <v>10</v>
+      </c>
+      <c r="W16">
+        <v>10</v>
+      </c>
+      <c r="X16">
+        <v>10</v>
+      </c>
+      <c r="Y16">
+        <v>6</v>
+      </c>
+      <c r="Z16">
+        <v>10</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>72</v>
+      </c>
+      <c r="B17">
+        <v>2018</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>6</v>
+      </c>
+      <c r="O17">
+        <v>8</v>
+      </c>
+      <c r="P17">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>9</v>
+      </c>
+      <c r="R17">
+        <v>7</v>
+      </c>
+      <c r="S17">
+        <v>10</v>
+      </c>
+      <c r="T17">
+        <v>9</v>
+      </c>
+      <c r="U17">
+        <v>4</v>
+      </c>
+      <c r="V17">
+        <v>9</v>
+      </c>
+      <c r="W17">
+        <v>9</v>
+      </c>
+      <c r="X17">
+        <v>10</v>
+      </c>
+      <c r="Y17">
+        <v>6</v>
+      </c>
+      <c r="Z17">
+        <v>9</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>73</v>
+      </c>
+      <c r="B18">
+        <v>2020</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18">
+        <v>8</v>
+      </c>
+      <c r="N18">
+        <v>6</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>9</v>
+      </c>
+      <c r="R18">
+        <v>8</v>
+      </c>
+      <c r="S18">
+        <v>10</v>
+      </c>
+      <c r="T18">
+        <v>10</v>
+      </c>
+      <c r="U18">
+        <v>10</v>
+      </c>
+      <c r="V18">
+        <v>8</v>
+      </c>
+      <c r="W18">
+        <v>10</v>
+      </c>
+      <c r="X18">
+        <v>7</v>
+      </c>
+      <c r="Y18">
+        <v>6</v>
+      </c>
+      <c r="Z18">
+        <v>9</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2020</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+      <c r="O19">
+        <v>8</v>
+      </c>
+      <c r="P19">
+        <v>7</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <v>9</v>
+      </c>
+      <c r="S19">
+        <v>7</v>
+      </c>
+      <c r="T19">
+        <v>7</v>
+      </c>
+      <c r="U19">
+        <v>8</v>
+      </c>
+      <c r="V19">
+        <v>6</v>
+      </c>
+      <c r="W19">
+        <v>7</v>
+      </c>
+      <c r="X19">
+        <v>8</v>
+      </c>
+      <c r="Y19">
+        <v>6</v>
+      </c>
+      <c r="Z19">
+        <v>8</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>69</v>
+      </c>
+      <c r="B20">
+        <v>2019</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20">
+        <v>8</v>
+      </c>
+      <c r="N20">
+        <v>8</v>
+      </c>
+      <c r="O20">
+        <v>8</v>
+      </c>
+      <c r="P20">
+        <v>8</v>
+      </c>
+      <c r="Q20">
+        <v>9</v>
+      </c>
+      <c r="R20">
+        <v>7</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>7</v>
+      </c>
+      <c r="V20">
+        <v>10</v>
+      </c>
+      <c r="W20">
+        <v>10</v>
+      </c>
+      <c r="X20">
+        <v>4</v>
+      </c>
+      <c r="Y20">
+        <v>7</v>
+      </c>
+      <c r="Z20">
+        <v>7</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>77</v>
+      </c>
+      <c r="B21">
+        <v>2018</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <v>10</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <v>10</v>
+      </c>
+      <c r="U21">
+        <v>10</v>
+      </c>
+      <c r="V21">
+        <v>10</v>
+      </c>
+      <c r="W21">
+        <v>6</v>
+      </c>
+      <c r="X21">
+        <v>10</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>10</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>2019</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>10</v>
+      </c>
+      <c r="O22">
+        <v>10</v>
+      </c>
+      <c r="P22">
+        <v>8</v>
+      </c>
+      <c r="Q22">
+        <v>10</v>
+      </c>
+      <c r="R22">
+        <v>10</v>
+      </c>
+      <c r="S22">
+        <v>8</v>
+      </c>
+      <c r="T22">
+        <v>9</v>
+      </c>
+      <c r="U22">
+        <v>10</v>
+      </c>
+      <c r="V22">
+        <v>6</v>
+      </c>
+      <c r="W22">
+        <v>10</v>
+      </c>
+      <c r="X22">
+        <v>10</v>
+      </c>
+      <c r="Y22">
+        <v>5</v>
+      </c>
+      <c r="Z22">
+        <v>6</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>61</v>
+      </c>
+      <c r="B23">
+        <v>2019</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23">
+        <v>6</v>
+      </c>
+      <c r="O23">
+        <v>8</v>
+      </c>
+      <c r="P23">
+        <v>7</v>
+      </c>
+      <c r="Q23">
+        <v>9</v>
+      </c>
+      <c r="R23">
+        <v>9</v>
+      </c>
+      <c r="S23">
+        <v>9</v>
+      </c>
+      <c r="T23">
+        <v>7</v>
+      </c>
+      <c r="U23">
+        <v>7</v>
+      </c>
+      <c r="V23">
+        <v>6</v>
+      </c>
+      <c r="W23">
+        <v>8</v>
+      </c>
+      <c r="X23">
+        <v>4</v>
+      </c>
+      <c r="Y23">
+        <v>8</v>
+      </c>
+      <c r="Z23">
+        <v>9</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>74</v>
+      </c>
+      <c r="B24">
+        <v>2019</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24">
+        <v>9</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <v>10</v>
+      </c>
+      <c r="P24">
+        <v>9</v>
+      </c>
+      <c r="Q24">
+        <v>8</v>
+      </c>
+      <c r="R24">
+        <v>8</v>
+      </c>
+      <c r="S24">
+        <v>8</v>
+      </c>
+      <c r="T24">
+        <v>8</v>
+      </c>
+      <c r="U24">
+        <v>9</v>
+      </c>
+      <c r="V24">
+        <v>7</v>
+      </c>
+      <c r="W24">
+        <v>10</v>
+      </c>
+      <c r="X24">
+        <v>9</v>
+      </c>
+      <c r="Y24">
+        <v>8</v>
+      </c>
+      <c r="Z24">
+        <v>10</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>2019</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25">
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <v>8</v>
+      </c>
+      <c r="O25">
+        <v>9</v>
+      </c>
+      <c r="P25">
+        <v>7</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+      <c r="R25">
+        <v>8</v>
+      </c>
+      <c r="S25">
+        <v>5</v>
+      </c>
+      <c r="T25">
+        <v>10</v>
+      </c>
+      <c r="U25">
+        <v>10</v>
+      </c>
+      <c r="V25">
+        <v>10</v>
+      </c>
+      <c r="W25">
+        <v>10</v>
+      </c>
+      <c r="X25">
+        <v>10</v>
+      </c>
+      <c r="Y25">
+        <v>6</v>
+      </c>
+      <c r="Z25">
+        <v>10</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26">
+        <v>9</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26">
+        <v>9</v>
+      </c>
+      <c r="P26">
+        <v>6</v>
+      </c>
+      <c r="Q26">
+        <v>9</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>8</v>
+      </c>
+      <c r="T26">
+        <v>7</v>
+      </c>
+      <c r="U26">
+        <v>9</v>
+      </c>
+      <c r="V26">
+        <v>9</v>
+      </c>
+      <c r="W26">
+        <v>8</v>
+      </c>
+      <c r="X26">
+        <v>9</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+      <c r="Z26">
+        <v>7</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <v>2020</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27">
+        <v>7</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>10</v>
+      </c>
+      <c r="P27">
+        <v>10</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+      <c r="R27">
+        <v>6</v>
+      </c>
+      <c r="S27">
+        <v>8</v>
+      </c>
+      <c r="T27">
+        <v>5</v>
+      </c>
+      <c r="U27">
+        <v>8</v>
+      </c>
+      <c r="V27">
+        <v>10</v>
+      </c>
+      <c r="W27">
+        <v>10</v>
+      </c>
+      <c r="X27">
+        <v>10</v>
+      </c>
+      <c r="Y27">
+        <v>10</v>
+      </c>
+      <c r="Z27">
+        <v>5</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>62</v>
+      </c>
+      <c r="B28">
+        <v>2019</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28">
+        <v>7</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
+      </c>
+      <c r="Q28">
+        <v>9</v>
+      </c>
+      <c r="R28">
+        <v>9</v>
+      </c>
+      <c r="S28">
+        <v>10</v>
+      </c>
+      <c r="T28">
+        <v>8</v>
+      </c>
+      <c r="U28">
+        <v>6</v>
+      </c>
+      <c r="V28">
+        <v>8</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
+      </c>
+      <c r="X28">
+        <v>10</v>
+      </c>
+      <c r="Y28">
+        <v>5</v>
+      </c>
+      <c r="Z28">
+        <v>10</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>71</v>
+      </c>
+      <c r="B29">
+        <v>2016</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29">
+        <v>7</v>
+      </c>
+      <c r="N29">
+        <v>7</v>
+      </c>
+      <c r="O29">
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <v>8</v>
+      </c>
+      <c r="Q29">
+        <v>9</v>
+      </c>
+      <c r="R29">
+        <v>8</v>
+      </c>
+      <c r="S29">
+        <v>8</v>
+      </c>
+      <c r="T29">
+        <v>9</v>
+      </c>
+      <c r="U29">
+        <v>8</v>
+      </c>
+      <c r="V29">
+        <v>9</v>
+      </c>
+      <c r="W29">
+        <v>6</v>
+      </c>
+      <c r="X29">
+        <v>8</v>
+      </c>
+      <c r="Y29">
+        <v>10</v>
+      </c>
+      <c r="Z29">
+        <v>8</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>78</v>
+      </c>
+      <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30">
+        <v>7</v>
+      </c>
+      <c r="K30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" t="s">
+        <v>91</v>
+      </c>
+      <c r="M30">
+        <v>9</v>
+      </c>
+      <c r="N30">
+        <v>9</v>
+      </c>
+      <c r="O30">
+        <v>9</v>
+      </c>
+      <c r="P30">
+        <v>9</v>
+      </c>
+      <c r="Q30">
+        <v>9</v>
+      </c>
+      <c r="R30">
+        <v>6</v>
+      </c>
+      <c r="S30">
+        <v>9</v>
+      </c>
+      <c r="T30">
+        <v>8</v>
+      </c>
+      <c r="U30">
+        <v>9</v>
+      </c>
+      <c r="V30">
+        <v>8</v>
+      </c>
+      <c r="W30">
+        <v>10</v>
+      </c>
+      <c r="X30">
+        <v>10</v>
+      </c>
+      <c r="Y30">
+        <v>10</v>
+      </c>
+      <c r="Z30">
+        <v>10</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>80</v>
+      </c>
+      <c r="B31">
+        <v>2018</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <v>10</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="Q31">
+        <v>10</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <v>10</v>
+      </c>
+      <c r="T31">
+        <v>10</v>
+      </c>
+      <c r="U31">
+        <v>10</v>
+      </c>
+      <c r="V31">
+        <v>10</v>
+      </c>
+      <c r="W31">
+        <v>10</v>
+      </c>
+      <c r="X31">
+        <v>10</v>
+      </c>
+      <c r="Y31">
+        <v>10</v>
+      </c>
+      <c r="Z31">
+        <v>10</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>82</v>
+      </c>
+      <c r="B32">
+        <v>2019</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32">
+        <v>9</v>
+      </c>
+      <c r="N32">
+        <v>7</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+      <c r="P32">
+        <v>7</v>
+      </c>
+      <c r="Q32">
+        <v>10</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <v>8</v>
+      </c>
+      <c r="T32">
+        <v>8</v>
+      </c>
+      <c r="U32">
+        <v>8</v>
+      </c>
+      <c r="V32">
+        <v>10</v>
+      </c>
+      <c r="W32">
+        <v>10</v>
+      </c>
+      <c r="X32">
+        <v>9</v>
+      </c>
+      <c r="Y32">
+        <v>9</v>
+      </c>
+      <c r="Z32">
+        <v>7</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>48</v>
+      </c>
+      <c r="B33">
+        <v>2019</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+      <c r="K33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" t="s">
+        <v>42</v>
+      </c>
+      <c r="M33">
+        <v>8</v>
+      </c>
+      <c r="N33">
+        <v>7</v>
+      </c>
+      <c r="O33">
+        <v>7</v>
+      </c>
+      <c r="P33">
+        <v>7</v>
+      </c>
+      <c r="Q33">
+        <v>8</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+      <c r="S33">
+        <v>7</v>
+      </c>
+      <c r="T33">
+        <v>6</v>
+      </c>
+      <c r="U33">
+        <v>8</v>
+      </c>
+      <c r="V33">
+        <v>8</v>
+      </c>
+      <c r="W33">
+        <v>8</v>
+      </c>
+      <c r="X33">
+        <v>9</v>
+      </c>
+      <c r="Y33">
+        <v>7</v>
+      </c>
+      <c r="Z33">
+        <v>8</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>2016</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34">
+        <v>9</v>
+      </c>
+      <c r="K34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34">
+        <v>9</v>
+      </c>
+      <c r="N34">
+        <v>7</v>
+      </c>
+      <c r="O34">
+        <v>8</v>
+      </c>
+      <c r="P34">
+        <v>10</v>
+      </c>
+      <c r="Q34">
+        <v>10</v>
+      </c>
+      <c r="R34">
+        <v>10</v>
+      </c>
+      <c r="S34">
+        <v>10</v>
+      </c>
+      <c r="T34">
+        <v>10</v>
+      </c>
+      <c r="U34">
+        <v>10</v>
+      </c>
+      <c r="V34">
+        <v>10</v>
+      </c>
+      <c r="W34">
+        <v>10</v>
+      </c>
+      <c r="X34">
+        <v>10</v>
+      </c>
+      <c r="Y34">
+        <v>10</v>
+      </c>
+      <c r="Z34">
+        <v>10</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AC34">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC34">
+      <sortCondition ref="AC1:AC34"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>